--- a/data/542/542_series.xlsx
+++ b/data/542/542_series.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\INTLINE\data\542\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\INTLINE\data\542\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{702B6FE6-6CFF-4F08-9B3F-E99CC4F6493A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="4110" yWindow="585" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
@@ -4380,10 +4381,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Furnishings,householdequipmentandroutinehouseholdmaintenanc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Health</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4393,10 +4390,6 @@
   </si>
   <si>
     <t>Communication</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Recreationandcultur</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -4858,13 +4851,21 @@
   </si>
   <si>
     <t>전산업, 채산성, 원지수, 실적</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Furnishings,householdequipmentandroutinehouseholdmaintenance</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recreationandculture</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -4969,7 +4970,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5246,7 +5247,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6041,7 +6042,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:L22">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L22">
     <sortCondition ref="A1"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -6050,7 +6051,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6112,10 +6113,10 @@
         <v>763</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -6152,10 +6153,10 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="B3" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="C3" t="s">
         <v>103</v>
@@ -6176,19 +6177,19 @@
         <v>993</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="M3" s="3" t="s">
+        <v>1086</v>
+      </c>
+      <c r="N3" s="3" t="s">
         <v>1088</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>1090</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -6217,19 +6218,19 @@
         <v>993</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="M4" s="3" t="s">
+        <v>1086</v>
+      </c>
+      <c r="N4" s="3" t="s">
         <v>1088</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>1090</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -6237,7 +6238,7 @@
         <v>108</v>
       </c>
       <c r="B5" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="C5" t="s">
         <v>103</v>
@@ -6258,27 +6259,27 @@
         <v>106</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="M5" s="3" t="s">
+        <v>1086</v>
+      </c>
+      <c r="N5" s="3" t="s">
         <v>1088</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>1090</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="B6" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="C6" t="s">
         <v>103</v>
@@ -6299,19 +6300,19 @@
         <v>106</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="M6" s="3" t="s">
+        <v>1086</v>
+      </c>
+      <c r="N6" s="3" t="s">
         <v>1088</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>1090</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -6340,19 +6341,19 @@
         <v>106</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="M7" s="3" t="s">
+        <v>1086</v>
+      </c>
+      <c r="N7" s="3" t="s">
         <v>1088</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>1090</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -6381,19 +6382,19 @@
         <v>106</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="M8" s="3" t="s">
+        <v>1086</v>
+      </c>
+      <c r="N8" s="3" t="s">
         <v>1088</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>1090</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -10953,14 +10954,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C89" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="G32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J72" sqref="J72"/>
+      <selection pane="bottomRight" activeCell="K49" sqref="K49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -11076,13 +11077,13 @@
         <v>106</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -11114,13 +11115,13 @@
         <v>106</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -11152,13 +11153,13 @@
         <v>106</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -11166,7 +11167,7 @@
         <v>504</v>
       </c>
       <c r="B6" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="C6" t="s">
         <v>492</v>
@@ -11190,13 +11191,13 @@
         <v>106</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -11204,7 +11205,7 @@
         <v>507</v>
       </c>
       <c r="B7" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="C7" t="s">
         <v>505</v>
@@ -11222,13 +11223,13 @@
         <v>16</v>
       </c>
       <c r="I7" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="L7"/>
     </row>
@@ -11258,10 +11259,10 @@
         <v>508</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="L8"/>
     </row>
@@ -11291,10 +11292,10 @@
         <v>508</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="L9"/>
     </row>
@@ -11324,10 +11325,10 @@
         <v>508</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="L10"/>
     </row>
@@ -11357,10 +11358,10 @@
         <v>508</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="L11"/>
     </row>
@@ -11390,10 +11391,10 @@
         <v>508</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="L12"/>
     </row>
@@ -11423,10 +11424,10 @@
         <v>508</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="L13"/>
     </row>
@@ -11456,10 +11457,10 @@
         <v>508</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="L14"/>
     </row>
@@ -11489,10 +11490,10 @@
         <v>508</v>
       </c>
       <c r="J15" s="3" t="s">
+        <v>1103</v>
+      </c>
+      <c r="K15" s="4" t="s">
         <v>1105</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>1107</v>
       </c>
       <c r="L15"/>
     </row>
@@ -11522,10 +11523,10 @@
         <v>508</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="L16"/>
     </row>
@@ -11555,10 +11556,10 @@
         <v>508</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="L17"/>
     </row>
@@ -11588,10 +11589,10 @@
         <v>508</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="L18"/>
     </row>
@@ -11621,10 +11622,10 @@
         <v>508</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="L19"/>
     </row>
@@ -11654,10 +11655,10 @@
         <v>508</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="L20"/>
     </row>
@@ -11687,10 +11688,10 @@
         <v>508</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="L21"/>
     </row>
@@ -11720,10 +11721,10 @@
         <v>508</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="L22"/>
     </row>
@@ -11753,10 +11754,10 @@
         <v>508</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="L23"/>
     </row>
@@ -11786,10 +11787,10 @@
         <v>508</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="L24"/>
     </row>
@@ -11822,13 +11823,13 @@
         <v>106</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -11857,7 +11858,7 @@
         <v>570</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="K26"/>
       <c r="L26"/>
@@ -12206,13 +12207,13 @@
         <v>106</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="K36" s="3" t="s">
         <v>996</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -12244,13 +12245,13 @@
         <v>106</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="K37" s="3" t="s">
         <v>997</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -12282,13 +12283,13 @@
         <v>106</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="K38" s="3" t="s">
         <v>998</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -12320,13 +12321,13 @@
         <v>106</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="K39" s="3" t="s">
         <v>999</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -12358,13 +12359,13 @@
         <v>106</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="K40" s="3" t="s">
         <v>1000</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -12396,13 +12397,13 @@
         <v>106</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>1001</v>
+        <v>1122</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -12434,13 +12435,13 @@
         <v>106</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -12472,13 +12473,13 @@
         <v>106</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -12510,13 +12511,13 @@
         <v>106</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -12548,13 +12549,13 @@
         <v>106</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>1005</v>
+        <v>1123</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -12586,13 +12587,13 @@
         <v>106</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -12624,13 +12625,13 @@
         <v>106</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -12662,13 +12663,13 @@
         <v>106</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -12700,13 +12701,13 @@
         <v>106</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -12738,13 +12739,13 @@
         <v>106</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -12776,13 +12777,13 @@
         <v>106</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -12814,13 +12815,13 @@
         <v>106</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
@@ -12852,18 +12853,18 @@
         <v>106</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="B54" t="s">
         <v>674</v>
@@ -12890,13 +12891,13 @@
         <v>106</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="L54" s="3" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
@@ -12928,13 +12929,13 @@
         <v>106</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -12966,13 +12967,13 @@
         <v>106</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
@@ -13004,13 +13005,13 @@
         <v>106</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
@@ -13042,13 +13043,13 @@
         <v>106</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
@@ -13080,13 +13081,13 @@
         <v>106</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -13118,18 +13119,18 @@
         <v>106</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="B61" t="s">
         <v>695</v>
@@ -13156,13 +13157,13 @@
         <v>106</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -13194,13 +13195,13 @@
         <v>106</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="L62" s="3" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
@@ -13232,13 +13233,13 @@
         <v>106</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="L63" s="3" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
@@ -13270,13 +13271,13 @@
         <v>106</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="L64" s="3" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
@@ -13308,13 +13309,13 @@
         <v>106</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="L65" s="3" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
@@ -13346,13 +13347,13 @@
         <v>106</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="L66" s="3" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -13384,18 +13385,18 @@
         <v>106</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="L67" s="3" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="B68" t="s">
         <v>709</v>
@@ -13422,13 +13423,13 @@
         <v>106</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="L68" s="3" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
@@ -13460,10 +13461,10 @@
         <v>17</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="L69" s="3" t="s">
         <v>983</v>
@@ -13498,10 +13499,10 @@
         <v>17</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="L70" s="3" t="s">
         <v>984</v>
@@ -13536,10 +13537,10 @@
         <v>17</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="L71" s="3" t="s">
         <v>985</v>
@@ -13574,10 +13575,10 @@
         <v>17</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="L72" s="3" t="s">
         <v>986</v>
@@ -13612,10 +13613,10 @@
         <v>965</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="L73" s="3" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
@@ -13765,7 +13766,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13853,7 +13854,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
